--- a/排课结果_版本1_2025-2026-1.xlsx
+++ b/排课结果_版本1_2025-2026-1.xlsx
@@ -13,8 +13,6 @@
     <sheet name="周三" sheetId="4" state="visible" r:id="rId4"/>
     <sheet name="周四" sheetId="5" state="visible" r:id="rId5"/>
     <sheet name="周五" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet name="周六" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet name="周日" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,7 +450,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,7 +516,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2025-11-21 22:42:13</t>
+          <t>2025-11-22 23:55:01</t>
         </is>
       </c>
     </row>
@@ -556,7 +554,7 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>26 门课程</t>
+          <t>42 门课程</t>
         </is>
       </c>
     </row>
@@ -568,7 +566,7 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>26 门课程</t>
+          <t>34 门课程</t>
         </is>
       </c>
     </row>
@@ -580,7 +578,7 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>26 门课程</t>
+          <t>31 门课程</t>
         </is>
       </c>
     </row>
@@ -592,7 +590,7 @@
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>13 门课程</t>
+          <t>14 门课程</t>
         </is>
       </c>
     </row>
@@ -604,31 +602,7 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>24 门课程</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>周六</t>
-        </is>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>21 门课程</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>周日</t>
-        </is>
-      </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>17 门课程</t>
+          <t>32 门课程</t>
         </is>
       </c>
     </row>
@@ -643,7 +617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -699,7 +673,7 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>军事理论</t>
+          <t>国家安全教育</t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
@@ -709,17 +683,17 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t>李树芬</t>
+          <t>刘玉标, 孟凡春, 李树芬, 杨桃莉, 杨都强, 王峰, 詹弘, 钱晓群</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>X2416</t>
+          <t>X1222</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>100/150</t>
+          <t>125/150</t>
         </is>
       </c>
     </row>
@@ -731,7 +705,7 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>高等数学I</t>
+          <t>线性代数B</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
@@ -741,17 +715,17 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>冯颖</t>
+          <t>蒲伟</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>X2418</t>
+          <t>X2524</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>50/150</t>
+          <t>50/60</t>
         </is>
       </c>
     </row>
@@ -763,7 +737,7 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>计算机程序设计</t>
+          <t>线性代数B</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
@@ -773,12 +747,12 @@
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>凯定吉</t>
+          <t>梁涛</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>X1217</t>
+          <t>X1229</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
@@ -790,12 +764,12 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>线性代数B</t>
+          <t>高等数学I</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -805,29 +779,29 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>符伟</t>
+          <t>熊学</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>X2528</t>
+          <t>X2319</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>50/60</t>
+          <t>50/150</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>计算机程序设计</t>
+          <t>跨学科创新方法与实践Ⅱ</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -837,29 +811,29 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>刘倩</t>
+          <t>杨乃琪</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>X1226</t>
+          <t>X1213</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>50/150</t>
+          <t>25/150</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>工程制图</t>
+          <t>美术Ⅰ</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -869,17 +843,17 @@
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>张胜霞</t>
+          <t>魏琳</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>X1310</t>
+          <t>X2316</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>50/100</t>
+          <t>25/150</t>
         </is>
       </c>
     </row>
@@ -891,7 +865,7 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>英语I</t>
+          <t>高等数学I</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
@@ -901,29 +875,29 @@
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t>杜洋</t>
+          <t>陈金喜</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>X2517</t>
+          <t>X2417</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>25/150</t>
+          <t>50/150</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>职业生涯规划</t>
+          <t>高等数学I</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -933,29 +907,29 @@
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>刘礼钊, 赵淑佳</t>
+          <t>冯颖</t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>X4358</t>
+          <t>X1314</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>100/100</t>
+          <t>50/100</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>形式与政策Ⅰ</t>
+          <t>线性代数B</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
@@ -965,29 +939,29 @@
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t>马晓燕</t>
+          <t>梁涛</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>X2428</t>
+          <t>X2336</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>100/60</t>
+          <t>50/60</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>军事理论</t>
+          <t>计算机程序设计</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
@@ -997,29 +971,29 @@
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>孟凡春</t>
+          <t>刘金艳</t>
         </is>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>X2525</t>
+          <t>X1322</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>100/60</t>
+          <t>50/100</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>计算机程序设计</t>
+          <t>工程制图</t>
         </is>
       </c>
       <c r="C12" s="4" t="inlineStr">
@@ -1029,29 +1003,29 @@
       </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t>刘金艳</t>
+          <t>孙丽丽</t>
         </is>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>X2524</t>
+          <t>X1228</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>50/60</t>
+          <t>50/150</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>美术Ⅰ</t>
+          <t>英语I</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
@@ -1061,29 +1035,29 @@
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>魏琳</t>
+          <t>夏玉立</t>
         </is>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>X2325</t>
+          <t>X1313</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>25/60</t>
+          <t>25/100</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>6-9</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>工程创新实训</t>
+          <t>线性代数B</t>
         </is>
       </c>
       <c r="C14" s="4" t="inlineStr">
@@ -1093,29 +1067,29 @@
       </c>
       <c r="D14" s="4" t="inlineStr">
         <is>
-          <t>贾亚坤</t>
+          <t>蒲伟</t>
         </is>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>X1310</t>
+          <t>X4358</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>125/100</t>
+          <t>50/100</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>高等数学I</t>
+          <t>计算机程序设计</t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
@@ -1125,29 +1099,29 @@
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>陈金喜</t>
+          <t>刘霓</t>
         </is>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>X4357</t>
+          <t>X2533</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>50/100</t>
+          <t>50/60</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>计算机程序设计</t>
+          <t>跨学科创新方法与实践Ⅱ</t>
         </is>
       </c>
       <c r="C16" s="4" t="inlineStr">
@@ -1157,29 +1131,29 @@
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>李茜</t>
+          <t>张方</t>
         </is>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>X2517</t>
+          <t>X7201</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>50/150</t>
+          <t>25/60</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>英语I</t>
+          <t>跨学科创新方法与实践Ⅱ</t>
         </is>
       </c>
       <c r="C17" s="4" t="inlineStr">
@@ -1189,29 +1163,29 @@
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>吴丽雯</t>
+          <t>梁红琴</t>
         </is>
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>X2422</t>
+          <t>X2233</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>25/150</t>
+          <t>25/60</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>6-7</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>线性代数B</t>
+          <t>跨学科创新方法与实践Ⅱ</t>
         </is>
       </c>
       <c r="C18" s="4" t="inlineStr">
@@ -1221,29 +1195,29 @@
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t>樊明书</t>
+          <t>胡香荣</t>
         </is>
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>X2328</t>
+          <t>X1310</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>50/60</t>
+          <t>25/100</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>6-7</t>
+          <t>6-9</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>工程化学</t>
+          <t>工程创新实训</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
@@ -1253,29 +1227,29 @@
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>黄婷</t>
+          <t>贾亚坤</t>
         </is>
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>X4152</t>
+          <t>X1228</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>50/100</t>
+          <t>125/150</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>6-7</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>跨学科创新方法与实践Ⅱ</t>
+          <t>高等数学I</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
@@ -1285,29 +1259,29 @@
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>王衡</t>
+          <t>朱星亮</t>
         </is>
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>X1219</t>
+          <t>X1312</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>25/150</t>
+          <t>50/100</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>6-7</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>跨学科创新方法与实践Ⅱ</t>
+          <t>高等数学I</t>
         </is>
       </c>
       <c r="C21" s="4" t="inlineStr">
@@ -1317,29 +1291,29 @@
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>张晓平</t>
+          <t>徐昌贵</t>
         </is>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>X2230</t>
+          <t>X4157</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>25/60</t>
+          <t>50/100</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>9-10</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>高等数学I</t>
+          <t>计算机程序设计</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">
@@ -1349,29 +1323,29 @@
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>徐昌贵</t>
+          <t>李茜</t>
         </is>
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>X2327</t>
+          <t>X2216</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>50/60</t>
+          <t>50/150</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>9-10</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>跨学科创新方法与实践Ⅱ</t>
+          <t>工程制图</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
@@ -1381,29 +1355,29 @@
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>张瑾</t>
+          <t>张胜霞</t>
         </is>
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>X2418</t>
+          <t>X4154</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>25/150</t>
+          <t>50/100</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>11-12</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>形式与政策Ⅰ</t>
+          <t>英语I</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
@@ -1413,29 +1387,29 @@
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>王誉静</t>
+          <t>夏玉立</t>
         </is>
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>X7201</t>
+          <t>X2531</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>100/60</t>
+          <t>25/60</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>11-12</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>高等数学I</t>
+          <t>英语I</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
@@ -1445,29 +1419,29 @@
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>徐昌贵</t>
+          <t>杨世蓉</t>
         </is>
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>X2529</t>
+          <t>X2325</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>50/60</t>
+          <t>25/60</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>11-12</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>跨学科创新方法与实践Ⅱ</t>
+          <t>英语I</t>
         </is>
       </c>
       <c r="C26" s="4" t="inlineStr">
@@ -1477,12 +1451,12 @@
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>葛兴来</t>
+          <t>杜洋</t>
         </is>
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>X2523</t>
+          <t>X7408</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
@@ -1494,32 +1468,544 @@
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
+          <t>6-8</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>英语I</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>必修</t>
+        </is>
+      </c>
+      <c r="D27" s="4" t="inlineStr">
+        <is>
+          <t>钟菲菲</t>
+        </is>
+      </c>
+      <c r="E27" s="4" t="inlineStr">
+        <is>
+          <t>X7102</t>
+        </is>
+      </c>
+      <c r="F27" s="4" t="inlineStr">
+        <is>
+          <t>25/60</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="inlineStr">
+        <is>
+          <t>6-7</t>
+        </is>
+      </c>
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>计算机程序设计</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>必修</t>
+        </is>
+      </c>
+      <c r="D28" s="4" t="inlineStr">
+        <is>
+          <t>刘倩</t>
+        </is>
+      </c>
+      <c r="E28" s="4" t="inlineStr">
+        <is>
+          <t>X2426</t>
+        </is>
+      </c>
+      <c r="F28" s="4" t="inlineStr">
+        <is>
+          <t>50/60</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="inlineStr">
+        <is>
+          <t>6-7</t>
+        </is>
+      </c>
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>跨学科创新方法与实践Ⅱ</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t>必修</t>
+        </is>
+      </c>
+      <c r="D29" s="4" t="inlineStr">
+        <is>
+          <t>葛兴来</t>
+        </is>
+      </c>
+      <c r="E29" s="4" t="inlineStr">
+        <is>
+          <t>X30384</t>
+        </is>
+      </c>
+      <c r="F29" s="4" t="inlineStr">
+        <is>
+          <t>25/30</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="inlineStr">
+        <is>
+          <t>9-10</t>
+        </is>
+      </c>
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>形式与政策Ⅰ</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t>必修</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="inlineStr">
+        <is>
+          <t>马晓燕</t>
+        </is>
+      </c>
+      <c r="E30" s="4" t="inlineStr">
+        <is>
+          <t>X1219</t>
+        </is>
+      </c>
+      <c r="F30" s="4" t="inlineStr">
+        <is>
+          <t>100/150</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t>9-10</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>军事理论</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>必修</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>李树芬</t>
+        </is>
+      </c>
+      <c r="E31" s="4" t="inlineStr">
+        <is>
+          <t>X1215</t>
+        </is>
+      </c>
+      <c r="F31" s="4" t="inlineStr">
+        <is>
+          <t>100/150</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>9-10</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>高等数学I</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>必修</t>
+        </is>
+      </c>
+      <c r="D32" s="4" t="inlineStr">
+        <is>
+          <t>冯颖</t>
+        </is>
+      </c>
+      <c r="E32" s="4" t="inlineStr">
+        <is>
+          <t>X2531</t>
+        </is>
+      </c>
+      <c r="F32" s="4" t="inlineStr">
+        <is>
+          <t>50/60</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="inlineStr">
+        <is>
+          <t>9-10</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>计算机程序设计</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>必修</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="inlineStr">
+        <is>
+          <t>李茜</t>
+        </is>
+      </c>
+      <c r="E33" s="4" t="inlineStr">
+        <is>
+          <t>X1310</t>
+        </is>
+      </c>
+      <c r="F33" s="4" t="inlineStr">
+        <is>
+          <t>50/100</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="inlineStr">
+        <is>
+          <t>9-10</t>
+        </is>
+      </c>
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>高等数学I</t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>必修</t>
+        </is>
+      </c>
+      <c r="D34" s="4" t="inlineStr">
+        <is>
+          <t>熊学</t>
+        </is>
+      </c>
+      <c r="E34" s="4" t="inlineStr">
+        <is>
+          <t>X2516</t>
+        </is>
+      </c>
+      <c r="F34" s="4" t="inlineStr">
+        <is>
+          <t>50/150</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="inlineStr">
+        <is>
+          <t>9-10</t>
+        </is>
+      </c>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>跨学科创新方法与实践Ⅱ</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>必修</t>
+        </is>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
+        <is>
+          <t>王玮</t>
+        </is>
+      </c>
+      <c r="E35" s="4" t="inlineStr">
+        <is>
+          <t>X2534</t>
+        </is>
+      </c>
+      <c r="F35" s="4" t="inlineStr">
+        <is>
+          <t>25/60</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="4" t="inlineStr">
+        <is>
+          <t>11-13</t>
+        </is>
+      </c>
+      <c r="B36" s="4" t="inlineStr">
+        <is>
+          <t>思想道德与法治</t>
+        </is>
+      </c>
+      <c r="C36" s="4" t="inlineStr">
+        <is>
+          <t>必修</t>
+        </is>
+      </c>
+      <c r="D36" s="4" t="inlineStr">
+        <is>
+          <t>杨子均</t>
+        </is>
+      </c>
+      <c r="E36" s="4" t="inlineStr">
+        <is>
+          <t>X4151</t>
+        </is>
+      </c>
+      <c r="F36" s="4" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="4" t="inlineStr">
+        <is>
+          <t>11-13</t>
+        </is>
+      </c>
+      <c r="B37" s="4" t="inlineStr">
+        <is>
+          <t>思想道德与法治</t>
+        </is>
+      </c>
+      <c r="C37" s="4" t="inlineStr">
+        <is>
+          <t>必修</t>
+        </is>
+      </c>
+      <c r="D37" s="4" t="inlineStr">
+        <is>
+          <t>何洪涛</t>
+        </is>
+      </c>
+      <c r="E37" s="4" t="inlineStr">
+        <is>
+          <t>X1312</t>
+        </is>
+      </c>
+      <c r="F37" s="4" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="4" t="inlineStr">
+        <is>
+          <t>11-13</t>
+        </is>
+      </c>
+      <c r="B38" s="4" t="inlineStr">
+        <is>
+          <t>工程制图</t>
+        </is>
+      </c>
+      <c r="C38" s="4" t="inlineStr">
+        <is>
+          <t>必修</t>
+        </is>
+      </c>
+      <c r="D38" s="4" t="inlineStr">
+        <is>
+          <t>孙丽丽</t>
+        </is>
+      </c>
+      <c r="E38" s="4" t="inlineStr">
+        <is>
+          <t>X1314</t>
+        </is>
+      </c>
+      <c r="F38" s="4" t="inlineStr">
+        <is>
+          <t>75/100</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="4" t="inlineStr">
+        <is>
+          <t>11-13</t>
+        </is>
+      </c>
+      <c r="B39" s="4" t="inlineStr">
+        <is>
+          <t>高等数学I</t>
+        </is>
+      </c>
+      <c r="C39" s="4" t="inlineStr">
+        <is>
+          <t>必修</t>
+        </is>
+      </c>
+      <c r="D39" s="4" t="inlineStr">
+        <is>
+          <t>徐昌贵</t>
+        </is>
+      </c>
+      <c r="E39" s="4" t="inlineStr">
+        <is>
+          <t>X2526</t>
+        </is>
+      </c>
+      <c r="F39" s="4" t="inlineStr">
+        <is>
+          <t>50/60</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="4" t="inlineStr">
+        <is>
+          <t>11-13</t>
+        </is>
+      </c>
+      <c r="B40" s="4" t="inlineStr">
+        <is>
+          <t>英语I</t>
+        </is>
+      </c>
+      <c r="C40" s="4" t="inlineStr">
+        <is>
+          <t>必修</t>
+        </is>
+      </c>
+      <c r="D40" s="4" t="inlineStr">
+        <is>
+          <t>杨世蓉</t>
+        </is>
+      </c>
+      <c r="E40" s="4" t="inlineStr">
+        <is>
+          <t>X4156</t>
+        </is>
+      </c>
+      <c r="F40" s="4" t="inlineStr">
+        <is>
+          <t>25/100</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="4" t="inlineStr">
+        <is>
+          <t>11-13</t>
+        </is>
+      </c>
+      <c r="B41" s="4" t="inlineStr">
+        <is>
+          <t>英语I</t>
+        </is>
+      </c>
+      <c r="C41" s="4" t="inlineStr">
+        <is>
+          <t>必修</t>
+        </is>
+      </c>
+      <c r="D41" s="4" t="inlineStr">
+        <is>
+          <t>杜洋</t>
+        </is>
+      </c>
+      <c r="E41" s="4" t="inlineStr">
+        <is>
+          <t>X1413</t>
+        </is>
+      </c>
+      <c r="F41" s="4" t="inlineStr">
+        <is>
+          <t>25/100</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="4" t="inlineStr">
+        <is>
           <t>11-12</t>
         </is>
       </c>
-      <c r="B27" s="4" t="inlineStr">
-        <is>
-          <t>跨学科创新方法与实践Ⅱ</t>
-        </is>
-      </c>
-      <c r="C27" s="4" t="inlineStr">
-        <is>
-          <t>必修</t>
-        </is>
-      </c>
-      <c r="D27" s="4" t="inlineStr">
-        <is>
-          <t>杨乃琪</t>
-        </is>
-      </c>
-      <c r="E27" s="4" t="inlineStr">
-        <is>
-          <t>X1314</t>
-        </is>
-      </c>
-      <c r="F27" s="4" t="inlineStr">
-        <is>
-          <t>25/100</t>
+      <c r="B42" s="4" t="inlineStr">
+        <is>
+          <t>军事理论</t>
+        </is>
+      </c>
+      <c r="C42" s="4" t="inlineStr">
+        <is>
+          <t>必修</t>
+        </is>
+      </c>
+      <c r="D42" s="4" t="inlineStr">
+        <is>
+          <t>孟凡春</t>
+        </is>
+      </c>
+      <c r="E42" s="4" t="inlineStr">
+        <is>
+          <t>X2317</t>
+        </is>
+      </c>
+      <c r="F42" s="4" t="inlineStr">
+        <is>
+          <t>100/150</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="4" t="inlineStr">
+        <is>
+          <t>11-12</t>
+        </is>
+      </c>
+      <c r="B43" s="4" t="inlineStr">
+        <is>
+          <t>高等数学I</t>
+        </is>
+      </c>
+      <c r="C43" s="4" t="inlineStr">
+        <is>
+          <t>必修</t>
+        </is>
+      </c>
+      <c r="D43" s="4" t="inlineStr">
+        <is>
+          <t>朱星亮</t>
+        </is>
+      </c>
+      <c r="E43" s="4" t="inlineStr">
+        <is>
+          <t>X2326</t>
+        </is>
+      </c>
+      <c r="F43" s="4" t="inlineStr">
+        <is>
+          <t>50/60</t>
         </is>
       </c>
     </row>
@@ -1534,7 +2020,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1605,12 +2091,12 @@
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>X2215</t>
+          <t>X2328</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>100/150</t>
+          <t>100/60</t>
         </is>
       </c>
     </row>
@@ -1622,7 +2108,7 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>形式与政策Ⅰ</t>
+          <t>高等数学I</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
@@ -1632,17 +2118,17 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>黄倩</t>
+          <t>陈金喜</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>X2429</t>
+          <t>X2530</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>100/60</t>
+          <t>50/60</t>
         </is>
       </c>
     </row>
@@ -1664,17 +2150,17 @@
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>陈金喜</t>
+          <t>朱星亮</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>X2227</t>
+          <t>X2321</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>50/60</t>
+          <t>50/150</t>
         </is>
       </c>
     </row>
@@ -1686,7 +2172,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>计算机程序设计</t>
+          <t>高等数学I</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -1696,29 +2182,29 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>刘金艳</t>
+          <t>徐昌贵</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>X1213</t>
+          <t>X2222</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>50/150</t>
+          <t>50/60</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>计算机程序设计</t>
+          <t>高等数学I</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -1728,17 +2214,17 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>凯定吉</t>
+          <t>陈金喜</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>X2417</t>
+          <t>X2325</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>50/150</t>
+          <t>50/60</t>
         </is>
       </c>
     </row>
@@ -1760,17 +2246,17 @@
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>梁涛</t>
+          <t>樊明书</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>X1214</t>
+          <t>X2227</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>50/150</t>
+          <t>50/60</t>
         </is>
       </c>
     </row>
@@ -1782,7 +2268,7 @@
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>英语I</t>
+          <t>线性代数B</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
@@ -1792,17 +2278,17 @@
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t>夏玉立</t>
+          <t>符伟</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>X7407</t>
+          <t>X2330</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>25/60</t>
+          <t>50/60</t>
         </is>
       </c>
     </row>
@@ -1814,7 +2300,7 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>英语I</t>
+          <t>计算机程序设计</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -1824,17 +2310,17 @@
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>钟菲菲</t>
+          <t>刘倩</t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>X1217</t>
+          <t>X1221</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>25/150</t>
+          <t>50/150</t>
         </is>
       </c>
     </row>
@@ -1846,7 +2332,7 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>英语I</t>
+          <t>制图与CAD基础</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
@@ -1856,29 +2342,29 @@
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t>杜洋</t>
+          <t>兰纯纯</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>X2418</t>
+          <t>X1222</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>25/150</t>
+          <t>50/150</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>计算机程序设计</t>
+          <t>英语I</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
@@ -1888,17 +2374,17 @@
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>李茜</t>
+          <t>吴丽雯</t>
         </is>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>X2426</t>
+          <t>X1226</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>50/60</t>
+          <t>25/150</t>
         </is>
       </c>
     </row>
@@ -1910,7 +2396,7 @@
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>高等数学I</t>
+          <t>军事理论</t>
         </is>
       </c>
       <c r="C12" s="4" t="inlineStr">
@@ -1920,17 +2406,17 @@
       </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t>徐昌贵</t>
+          <t>李树芬</t>
         </is>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>X2518</t>
+          <t>X2420</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>50/150</t>
+          <t>100/150</t>
         </is>
       </c>
     </row>
@@ -1942,7 +2428,7 @@
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>跨学科创新方法与实践Ⅱ</t>
+          <t>高等数学I</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
@@ -1952,17 +2438,17 @@
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>梁红琴</t>
+          <t>徐昌贵</t>
         </is>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>X2417</t>
+          <t>X2321</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>25/150</t>
+          <t>50/150</t>
         </is>
       </c>
     </row>
@@ -1984,29 +2470,29 @@
       </c>
       <c r="D14" s="4" t="inlineStr">
         <is>
-          <t>朱石磊</t>
+          <t>赵菁</t>
         </is>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>X7408</t>
+          <t>X9539</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>25/60</t>
+          <t>25/30</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>6-9</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>线性代数B</t>
+          <t>工程创新实训</t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
@@ -2016,17 +2502,17 @@
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>蒲伟</t>
+          <t>贾亚坤</t>
         </is>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>X1321</t>
+          <t>X2416</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>50/100</t>
+          <t>125/150</t>
         </is>
       </c>
     </row>
@@ -2038,7 +2524,7 @@
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>计算机程序设计</t>
+          <t>思想道德与法治</t>
         </is>
       </c>
       <c r="C16" s="4" t="inlineStr">
@@ -2048,17 +2534,17 @@
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>刘倩</t>
+          <t>杨子均</t>
         </is>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>X1211</t>
+          <t>X1229</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>50/150</t>
+          <t>100/150</t>
         </is>
       </c>
     </row>
@@ -2070,7 +2556,7 @@
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>英语I</t>
+          <t>高等数学I</t>
         </is>
       </c>
       <c r="C17" s="4" t="inlineStr">
@@ -2080,17 +2566,17 @@
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>钟菲菲</t>
+          <t>熊学</t>
         </is>
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>X2321</t>
+          <t>X2533</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>25/150</t>
+          <t>50/60</t>
         </is>
       </c>
     </row>
@@ -2102,7 +2588,7 @@
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>英语I</t>
+          <t>线性代数B</t>
         </is>
       </c>
       <c r="C18" s="4" t="inlineStr">
@@ -2112,29 +2598,29 @@
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t>杨世蓉</t>
+          <t>张兴元</t>
         </is>
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>X7201</t>
+          <t>X2528</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>25/60</t>
+          <t>50/60</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>6-7</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>土木工程智能建造概论</t>
+          <t>线性代数B</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
@@ -2144,29 +2630,29 @@
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>余志祥, 勾红叶, 张迎宾, 王明年, 蒲黔辉, 陈嵘</t>
+          <t>符伟</t>
         </is>
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>X2229</t>
+          <t>X2424</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>100/60</t>
+          <t>50/60</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>6-7</t>
+          <t>6-8</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>军事理论</t>
+          <t>工程制图</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
@@ -2176,17 +2662,17 @@
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>李树芬</t>
+          <t>张胜霞</t>
         </is>
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>X1319</t>
+          <t>X1218</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>100/100</t>
+          <t>50/150</t>
         </is>
       </c>
     </row>
@@ -2198,7 +2684,7 @@
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>高等数学I</t>
+          <t>土木工程智能建造概论</t>
         </is>
       </c>
       <c r="C21" s="4" t="inlineStr">
@@ -2208,17 +2694,17 @@
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>陈金喜</t>
+          <t>余志祥, 勾红叶, 张迎宾, 王明年, 蒲黔辉, 陈嵘</t>
         </is>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>X2316</t>
+          <t>X1210</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>50/150</t>
+          <t>100/150</t>
         </is>
       </c>
     </row>
@@ -2230,7 +2716,7 @@
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>高等数学I</t>
+          <t>线性代数B</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">
@@ -2240,29 +2726,29 @@
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>冯颖</t>
+          <t>樊明书</t>
         </is>
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>X2326</t>
+          <t>X4151</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>50/60</t>
+          <t>50/100</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>6-7</t>
+          <t>9-10</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>跨学科创新方法与实践Ⅱ</t>
+          <t>形式与政策Ⅰ</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
@@ -2272,17 +2758,17 @@
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>王玮</t>
+          <t>王誉静</t>
         </is>
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>X7310</t>
+          <t>X2529</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>25/60</t>
+          <t>100/60</t>
         </is>
       </c>
     </row>
@@ -2304,12 +2790,12 @@
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>朱星亮</t>
+          <t>熊学</t>
         </is>
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>X2326</t>
+          <t>X2532</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
@@ -2321,12 +2807,12 @@
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>11-13</t>
+          <t>9-10</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>工程制图</t>
+          <t>计算机程序设计</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
@@ -2336,29 +2822,29 @@
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>孙丽丽</t>
+          <t>刘倩</t>
         </is>
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>X7408</t>
+          <t>X7402</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>75/60</t>
+          <t>50/60</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>11-13</t>
+          <t>9-10</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>英语I</t>
+          <t>工程化学</t>
         </is>
       </c>
       <c r="C26" s="4" t="inlineStr">
@@ -2368,49 +2854,305 @@
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>杨世蓉</t>
+          <t>侯宗瑞</t>
         </is>
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>X2231</t>
+          <t>X2224</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>25/60</t>
+          <t>50/60</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
+          <t>9-10</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>跨学科创新方法与实践Ⅱ</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>必修</t>
+        </is>
+      </c>
+      <c r="D27" s="4" t="inlineStr">
+        <is>
+          <t>孙燕云</t>
+        </is>
+      </c>
+      <c r="E27" s="4" t="inlineStr">
+        <is>
+          <t>X1218</t>
+        </is>
+      </c>
+      <c r="F27" s="4" t="inlineStr">
+        <is>
+          <t>25/150</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="inlineStr">
+        <is>
+          <t>11-13</t>
+        </is>
+      </c>
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>思想道德与法治</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>必修</t>
+        </is>
+      </c>
+      <c r="D28" s="4" t="inlineStr">
+        <is>
+          <t>唐登然</t>
+        </is>
+      </c>
+      <c r="E28" s="4" t="inlineStr">
+        <is>
+          <t>X1310</t>
+        </is>
+      </c>
+      <c r="F28" s="4" t="inlineStr">
+        <is>
+          <t>100/100</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="inlineStr">
+        <is>
+          <t>11-13</t>
+        </is>
+      </c>
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>思想道德与法治</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t>必修</t>
+        </is>
+      </c>
+      <c r="D29" s="4" t="inlineStr">
+        <is>
+          <t>何洪涛</t>
+        </is>
+      </c>
+      <c r="E29" s="4" t="inlineStr">
+        <is>
+          <t>X2216</t>
+        </is>
+      </c>
+      <c r="F29" s="4" t="inlineStr">
+        <is>
+          <t>100/150</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="inlineStr">
+        <is>
+          <t>11-13</t>
+        </is>
+      </c>
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>线性代数B</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t>必修</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="inlineStr">
+        <is>
+          <t>蒲伟</t>
+        </is>
+      </c>
+      <c r="E30" s="4" t="inlineStr">
+        <is>
+          <t>X2234</t>
+        </is>
+      </c>
+      <c r="F30" s="4" t="inlineStr">
+        <is>
+          <t>50/60</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t>11-13</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>线性代数B</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>必修</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>梁涛</t>
+        </is>
+      </c>
+      <c r="E31" s="4" t="inlineStr">
+        <is>
+          <t>X2419</t>
+        </is>
+      </c>
+      <c r="F31" s="4" t="inlineStr">
+        <is>
+          <t>50/150</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>11-13</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>英语I</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>必修</t>
+        </is>
+      </c>
+      <c r="D32" s="4" t="inlineStr">
+        <is>
+          <t>吴丽雯</t>
+        </is>
+      </c>
+      <c r="E32" s="4" t="inlineStr">
+        <is>
+          <t>X1220</t>
+        </is>
+      </c>
+      <c r="F32" s="4" t="inlineStr">
+        <is>
+          <t>25/150</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="4" t="inlineStr">
+        <is>
+          <t>11-13</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="inlineStr">
+        <is>
+          <t>英语I</t>
+        </is>
+      </c>
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>必修</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="inlineStr">
+        <is>
+          <t>杜洋</t>
+        </is>
+      </c>
+      <c r="E33" s="4" t="inlineStr">
+        <is>
+          <t>X2323</t>
+        </is>
+      </c>
+      <c r="F33" s="4" t="inlineStr">
+        <is>
+          <t>25/60</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="4" t="inlineStr">
+        <is>
           <t>11-12</t>
         </is>
       </c>
-      <c r="B27" s="4" t="inlineStr">
-        <is>
-          <t>跨学科创新方法与实践Ⅱ</t>
-        </is>
-      </c>
-      <c r="C27" s="4" t="inlineStr">
-        <is>
-          <t>必修</t>
-        </is>
-      </c>
-      <c r="D27" s="4" t="inlineStr">
-        <is>
-          <t>朱洁</t>
-        </is>
-      </c>
-      <c r="E27" s="4" t="inlineStr">
-        <is>
-          <t>X4154</t>
-        </is>
-      </c>
-      <c r="F27" s="4" t="inlineStr">
-        <is>
-          <t>25/100</t>
+      <c r="B34" s="4" t="inlineStr">
+        <is>
+          <t>国家安全教育</t>
+        </is>
+      </c>
+      <c r="C34" s="4" t="inlineStr">
+        <is>
+          <t>必修</t>
+        </is>
+      </c>
+      <c r="D34" s="4" t="inlineStr">
+        <is>
+          <t>刘玉标, 孟凡春, 李树芬, 杨桃莉, 杨都强, 王峰, 詹弘, 钱晓群</t>
+        </is>
+      </c>
+      <c r="E34" s="4" t="inlineStr">
+        <is>
+          <t>X1226</t>
+        </is>
+      </c>
+      <c r="F34" s="4" t="inlineStr">
+        <is>
+          <t>100/150</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="4" t="inlineStr">
+        <is>
+          <t>11-12</t>
+        </is>
+      </c>
+      <c r="B35" s="4" t="inlineStr">
+        <is>
+          <t>工程化学</t>
+        </is>
+      </c>
+      <c r="C35" s="4" t="inlineStr">
+        <is>
+          <t>必修</t>
+        </is>
+      </c>
+      <c r="D35" s="4" t="inlineStr">
+        <is>
+          <t>黄婷</t>
+        </is>
+      </c>
+      <c r="E35" s="4" t="inlineStr">
+        <is>
+          <t>X1214</t>
+        </is>
+      </c>
+      <c r="F35" s="4" t="inlineStr">
+        <is>
+          <t>50/150</t>
         </is>
       </c>
     </row>
@@ -2425,7 +3167,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F27"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2476,12 +3218,12 @@
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>1-4</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>工程创新实训</t>
+          <t>形式与政策Ⅰ</t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
@@ -2491,12 +3233,12 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t>贾亚坤</t>
+          <t>王誉静</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>X2416</t>
+          <t>X2215</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
@@ -2513,7 +3255,7 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>军事技能</t>
+          <t>工程化学</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
@@ -2523,24 +3265,24 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>李圣炎</t>
+          <t>黄婷</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>X4157</t>
+          <t>X1223</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>275/100</t>
+          <t>75/150</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="4" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="B4" s="4" t="inlineStr">
@@ -2555,12 +3297,12 @@
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>熊学</t>
+          <t>冯颖</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>X7301</t>
+          <t>X7408</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
@@ -2572,12 +3314,12 @@
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>计算机程序设计</t>
+          <t>跨学科创新方法与实践Ⅱ</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -2587,29 +3329,29 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>刘金艳</t>
+          <t>郭永春</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>X4157</t>
+          <t>X2328</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>50/100</t>
+          <t>25/60</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>英语I</t>
+          <t>跨学科创新方法与实践Ⅱ</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -2619,12 +3361,12 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>吴丽雯</t>
+          <t>张瑾</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>X4156</t>
+          <t>X4154</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -2636,12 +3378,12 @@
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>英语I</t>
+          <t>跨学科创新方法与实践Ⅱ</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -2651,12 +3393,12 @@
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>夏玉立</t>
+          <t>宋爱玲</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>X2419</t>
+          <t>X2422</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
@@ -2668,7 +3410,7 @@
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
@@ -2688,7 +3430,7 @@
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>X4358</t>
+          <t>X1413</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -2700,12 +3442,12 @@
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>高等数学I</t>
+          <t>英语I</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -2715,17 +3457,17 @@
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>陈金喜</t>
+          <t>夏玉立</t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>X1320</t>
+          <t>X2216</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>50/100</t>
+          <t>25/150</t>
         </is>
       </c>
     </row>
@@ -2737,7 +3479,7 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>跨学科创新方法与实践Ⅱ</t>
+          <t>军事技能</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
@@ -2747,17 +3489,17 @@
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t>胡香荣</t>
+          <t>李圣炎</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>X1315</t>
+          <t>X30385</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>25/100</t>
+          <t>275/30</t>
         </is>
       </c>
     </row>
@@ -2769,7 +3511,7 @@
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>高等数学I</t>
+          <t>制图与CAD基础</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
@@ -2779,17 +3521,17 @@
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>陈金喜</t>
+          <t>兰纯纯</t>
         </is>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>X1229</t>
+          <t>X1313</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>50/150</t>
+          <t>75/100</t>
         </is>
       </c>
     </row>
@@ -2811,12 +3553,12 @@
       </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t>朱星亮</t>
+          <t>冯颖</t>
         </is>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>X1220</t>
+          <t>X2419</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
@@ -2833,7 +3575,7 @@
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>高等数学I</t>
+          <t>线性代数B</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
@@ -2843,17 +3585,17 @@
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>熊学</t>
+          <t>樊明书</t>
         </is>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>X2420</t>
+          <t>X1322</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>50/150</t>
+          <t>50/100</t>
         </is>
       </c>
     </row>
@@ -2865,7 +3607,7 @@
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>线性代数B</t>
+          <t>英语I</t>
         </is>
       </c>
       <c r="C14" s="4" t="inlineStr">
@@ -2875,17 +3617,17 @@
       </c>
       <c r="D14" s="4" t="inlineStr">
         <is>
-          <t>符伟</t>
+          <t>吴丽雯</t>
         </is>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>X7407</t>
+          <t>X2213</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>50/60</t>
+          <t>25/150</t>
         </is>
       </c>
     </row>
@@ -2897,7 +3639,7 @@
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>计算机程序设计</t>
+          <t>英语I</t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
@@ -2907,29 +3649,29 @@
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>刘金艳</t>
+          <t>杨世蓉</t>
         </is>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>X7301</t>
+          <t>X2418</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>50/60</t>
+          <t>25/150</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>6-7</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>英语I</t>
+          <t>体育Ⅰ</t>
         </is>
       </c>
       <c r="C16" s="4" t="inlineStr">
@@ -2939,29 +3681,29 @@
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>夏玉立</t>
+          <t>易述鲜</t>
         </is>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>X2418</t>
+          <t>X2417</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>25/150</t>
+          <t>150/150</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>6-7</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>英语I</t>
+          <t>计算机程序设计</t>
         </is>
       </c>
       <c r="C17" s="4" t="inlineStr">
@@ -2971,29 +3713,29 @@
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>杨世蓉</t>
+          <t>刘霓</t>
         </is>
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>X30385</t>
+          <t>X2324</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>25/30</t>
+          <t>50/60</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>6-7</t>
+          <t>9-10</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>线性代数B</t>
+          <t>军事理论</t>
         </is>
       </c>
       <c r="C18" s="4" t="inlineStr">
@@ -3003,29 +3745,29 @@
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t>樊明书</t>
+          <t>李树芬</t>
         </is>
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>X2326</t>
+          <t>X1311</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>50/60</t>
+          <t>100/100</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>6-7</t>
+          <t>9-10</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>高等数学I</t>
+          <t>国家安全教育</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
@@ -3035,17 +3777,17 @@
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>冯颖</t>
+          <t>刘玉标, 孟凡春, 李树芬, 杨桃莉, 杨都强, 王峰, 詹弘, 钱晓群</t>
         </is>
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>X1320</t>
+          <t>X2420</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>50/100</t>
+          <t>100/150</t>
         </is>
       </c>
     </row>
@@ -3057,7 +3799,7 @@
       </c>
       <c r="B20" s="4" t="inlineStr">
         <is>
-          <t>体育Ⅰ</t>
+          <t>高等数学I</t>
         </is>
       </c>
       <c r="C20" s="4" t="inlineStr">
@@ -3067,17 +3809,17 @@
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>易述鲜</t>
+          <t>徐昌贵</t>
         </is>
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>X2524</t>
+          <t>工训A座201</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>350/60</t>
+          <t>50/50</t>
         </is>
       </c>
     </row>
@@ -3089,7 +3831,7 @@
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>职业生涯规划</t>
+          <t>线性代数B</t>
         </is>
       </c>
       <c r="C21" s="4" t="inlineStr">
@@ -3099,17 +3841,17 @@
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>刘礼钊, 赵淑佳, 陈曦轶</t>
+          <t>樊明书</t>
         </is>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>X2517</t>
+          <t>X1220</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>100/150</t>
+          <t>50/150</t>
         </is>
       </c>
     </row>
@@ -3136,12 +3878,12 @@
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>X2230</t>
+          <t>X2213</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>50/60</t>
+          <t>50/150</t>
         </is>
       </c>
     </row>
@@ -3153,7 +3895,7 @@
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>计算机程序设计</t>
+          <t>高等数学I</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
@@ -3163,12 +3905,12 @@
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>凯定吉</t>
+          <t>朱星亮</t>
         </is>
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>X1210</t>
+          <t>X2419</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
@@ -3185,7 +3927,7 @@
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>工程制图</t>
+          <t>高等数学I</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
@@ -3195,12 +3937,12 @@
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>张胜霞</t>
+          <t>熊学</t>
         </is>
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>X1229</t>
+          <t>X2517</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
@@ -3212,12 +3954,12 @@
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
-          <t>11-12</t>
+          <t>11-13</t>
         </is>
       </c>
       <c r="B25" s="4" t="inlineStr">
         <is>
-          <t>军事理论</t>
+          <t>计算机程序设计</t>
         </is>
       </c>
       <c r="C25" s="4" t="inlineStr">
@@ -3227,29 +3969,29 @@
       </c>
       <c r="D25" s="4" t="inlineStr">
         <is>
-          <t>李树芬</t>
+          <t>李茜</t>
         </is>
       </c>
       <c r="E25" s="4" t="inlineStr">
         <is>
-          <t>X30378</t>
+          <t>X1313</t>
         </is>
       </c>
       <c r="F25" s="4" t="inlineStr">
         <is>
-          <t>100/30</t>
+          <t>50/100</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="4" t="inlineStr">
         <is>
-          <t>11-12</t>
+          <t>11-13</t>
         </is>
       </c>
       <c r="B26" s="4" t="inlineStr">
         <is>
-          <t>国家安全教育</t>
+          <t>计算机程序设计</t>
         </is>
       </c>
       <c r="C26" s="4" t="inlineStr">
@@ -3259,49 +4001,209 @@
       </c>
       <c r="D26" s="4" t="inlineStr">
         <is>
-          <t>刘玉标, 孟凡春, 李树芬, 杨桃莉, 杨都强, 王峰, 詹弘, 钱晓群</t>
+          <t>刘金艳</t>
         </is>
       </c>
       <c r="E26" s="4" t="inlineStr">
         <is>
-          <t>X1215</t>
+          <t>X2418</t>
         </is>
       </c>
       <c r="F26" s="4" t="inlineStr">
         <is>
-          <t>100/150</t>
+          <t>50/150</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="4" t="inlineStr">
         <is>
+          <t>11-13</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>计算机程序设计</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>必修</t>
+        </is>
+      </c>
+      <c r="D27" s="4" t="inlineStr">
+        <is>
+          <t>凯定吉</t>
+        </is>
+      </c>
+      <c r="E27" s="4" t="inlineStr">
+        <is>
+          <t>X2426</t>
+        </is>
+      </c>
+      <c r="F27" s="4" t="inlineStr">
+        <is>
+          <t>50/60</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="inlineStr">
+        <is>
+          <t>11-13</t>
+        </is>
+      </c>
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>计算机程序设计</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>必修</t>
+        </is>
+      </c>
+      <c r="D28" s="4" t="inlineStr">
+        <is>
+          <t>刘霓</t>
+        </is>
+      </c>
+      <c r="E28" s="4" t="inlineStr">
+        <is>
+          <t>X1213</t>
+        </is>
+      </c>
+      <c r="F28" s="4" t="inlineStr">
+        <is>
+          <t>50/150</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="inlineStr">
+        <is>
+          <t>11-13</t>
+        </is>
+      </c>
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>英语I</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t>必修</t>
+        </is>
+      </c>
+      <c r="D29" s="4" t="inlineStr">
+        <is>
+          <t>杜洋</t>
+        </is>
+      </c>
+      <c r="E29" s="4" t="inlineStr">
+        <is>
+          <t>X2531</t>
+        </is>
+      </c>
+      <c r="F29" s="4" t="inlineStr">
+        <is>
+          <t>25/60</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="inlineStr">
+        <is>
+          <t>11-13</t>
+        </is>
+      </c>
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>英语I</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t>必修</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="inlineStr">
+        <is>
+          <t>钟菲菲</t>
+        </is>
+      </c>
+      <c r="E30" s="4" t="inlineStr">
+        <is>
+          <t>X2226</t>
+        </is>
+      </c>
+      <c r="F30" s="4" t="inlineStr">
+        <is>
+          <t>25/60</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t>11-13</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>英语I</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>必修</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>杨世蓉</t>
+        </is>
+      </c>
+      <c r="E31" s="4" t="inlineStr">
+        <is>
+          <t>X1221</t>
+        </is>
+      </c>
+      <c r="F31" s="4" t="inlineStr">
+        <is>
+          <t>25/150</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="inlineStr">
+        <is>
           <t>11-12</t>
         </is>
       </c>
-      <c r="B27" s="4" t="inlineStr">
-        <is>
-          <t>跨学科创新方法与实践Ⅱ</t>
-        </is>
-      </c>
-      <c r="C27" s="4" t="inlineStr">
-        <is>
-          <t>必修</t>
-        </is>
-      </c>
-      <c r="D27" s="4" t="inlineStr">
-        <is>
-          <t>张方</t>
-        </is>
-      </c>
-      <c r="E27" s="4" t="inlineStr">
-        <is>
-          <t>X1211</t>
-        </is>
-      </c>
-      <c r="F27" s="4" t="inlineStr">
-        <is>
-          <t>25/150</t>
+      <c r="B32" s="4" t="inlineStr">
+        <is>
+          <t>高等数学I</t>
+        </is>
+      </c>
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>必修</t>
+        </is>
+      </c>
+      <c r="D32" s="4" t="inlineStr">
+        <is>
+          <t>冯颖</t>
+        </is>
+      </c>
+      <c r="E32" s="4" t="inlineStr">
+        <is>
+          <t>X2425</t>
+        </is>
+      </c>
+      <c r="F32" s="4" t="inlineStr">
+        <is>
+          <t>50/60</t>
         </is>
       </c>
     </row>
@@ -3316,7 +4218,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F14"/>
+  <dimension ref="A1:F15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3367,12 +4269,12 @@
     <row r="2">
       <c r="A2" s="4" t="inlineStr">
         <is>
-          <t>1-2</t>
+          <t>1-4</t>
         </is>
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>形式与政策Ⅰ</t>
+          <t>工程创新实训</t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
@@ -3382,12 +4284,12 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t>王誉静</t>
+          <t>贾亚坤</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>X2321</t>
+          <t>X2319</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
@@ -3404,7 +4306,7 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>高等数学I</t>
+          <t>军事技能</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
@@ -3414,17 +4316,17 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>朱星亮</t>
+          <t>文彦达</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>X2235</t>
+          <t>X2222</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>50/60</t>
+          <t>225/60</t>
         </is>
       </c>
     </row>
@@ -3436,7 +4338,7 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>高等数学I</t>
+          <t>军事理论</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
@@ -3446,17 +4348,17 @@
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>熊学</t>
+          <t>李树芬</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>X1223</t>
+          <t>X4154</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>50/150</t>
+          <t>100/100</t>
         </is>
       </c>
     </row>
@@ -3468,7 +4370,7 @@
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>线性代数B</t>
+          <t>高等数学I</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -3478,17 +4380,17 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>梁涛</t>
+          <t>陈金喜</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>X1313</t>
+          <t>X1229</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>50/100</t>
+          <t>50/150</t>
         </is>
       </c>
     </row>
@@ -3500,7 +4402,7 @@
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>线性代数B</t>
+          <t>计算机程序设计</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -3510,12 +4412,12 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>符伟</t>
+          <t>凯定吉</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>X2418</t>
+          <t>X1217</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
@@ -3542,29 +4444,29 @@
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>宋爱玲</t>
+          <t>杨乃琪</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>X2416</t>
+          <t>X2232</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>25/150</t>
+          <t>25/60</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>线性代数B</t>
+          <t>美术Ⅰ</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
@@ -3574,17 +4476,17 @@
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t>张兴元</t>
+          <t>魏琳</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>X1320</t>
+          <t>X1213</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
         <is>
-          <t>50/100</t>
+          <t>25/150</t>
         </is>
       </c>
     </row>
@@ -3596,7 +4498,7 @@
       </c>
       <c r="B9" s="4" t="inlineStr">
         <is>
-          <t>线性代数B</t>
+          <t>计算机程序设计</t>
         </is>
       </c>
       <c r="C9" s="4" t="inlineStr">
@@ -3606,17 +4508,17 @@
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>樊明书</t>
+          <t>凯定吉</t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>X2527</t>
+          <t>X4152</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>50/60</t>
+          <t>50/100</t>
         </is>
       </c>
     </row>
@@ -3628,7 +4530,7 @@
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>工程制图</t>
+          <t>英语I</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
@@ -3638,17 +4540,17 @@
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t>孙丽丽</t>
+          <t>钟菲菲</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>X2235</t>
+          <t>X2416</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>50/60</t>
+          <t>25/150</t>
         </is>
       </c>
     </row>
@@ -3670,12 +4572,12 @@
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>钟菲菲</t>
+          <t>夏玉立</t>
         </is>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>X1413</t>
+          <t>X4153</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
@@ -3687,12 +4589,12 @@
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>国家安全教育</t>
+          <t>英语I</t>
         </is>
       </c>
       <c r="C12" s="4" t="inlineStr">
@@ -3702,17 +4604,17 @@
       </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t>刘玉标, 孟凡春, 李树芬, 杨桃莉, 杨都强, 王峰, 詹弘, 钱晓群</t>
+          <t>吴丽雯</t>
         </is>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>X1212</t>
+          <t>X2214</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>100/150</t>
+          <t>25/150</t>
         </is>
       </c>
     </row>
@@ -3724,7 +4626,7 @@
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>线性代数B</t>
+          <t>高等数学I</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
@@ -3734,17 +4636,17 @@
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>梁涛</t>
+          <t>熊学</t>
         </is>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>X1228</t>
+          <t>X2334</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>50/150</t>
+          <t>50/60</t>
         </is>
       </c>
     </row>
@@ -3756,7 +4658,7 @@
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>跨学科创新方法与实践Ⅱ</t>
+          <t>线性代数B</t>
         </is>
       </c>
       <c r="C14" s="4" t="inlineStr">
@@ -3766,17 +4668,49 @@
       </c>
       <c r="D14" s="4" t="inlineStr">
         <is>
-          <t>孙燕云</t>
+          <t>张兴元</t>
         </is>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>X4152</t>
+          <t>X2316</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>25/100</t>
+          <t>50/150</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="4" t="inlineStr">
+        <is>
+          <t>3-4</t>
+        </is>
+      </c>
+      <c r="B15" s="4" t="inlineStr">
+        <is>
+          <t>线性代数B</t>
+        </is>
+      </c>
+      <c r="C15" s="4" t="inlineStr">
+        <is>
+          <t>必修</t>
+        </is>
+      </c>
+      <c r="D15" s="4" t="inlineStr">
+        <is>
+          <t>梁涛</t>
+        </is>
+      </c>
+      <c r="E15" s="4" t="inlineStr">
+        <is>
+          <t>X2321</t>
+        </is>
+      </c>
+      <c r="F15" s="4" t="inlineStr">
+        <is>
+          <t>50/150</t>
         </is>
       </c>
     </row>
@@ -3791,7 +4725,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3847,7 +4781,7 @@
       </c>
       <c r="B2" s="4" t="inlineStr">
         <is>
-          <t>体育Ⅰ</t>
+          <t>职业生涯规划</t>
         </is>
       </c>
       <c r="C2" s="4" t="inlineStr">
@@ -3857,17 +4791,17 @@
       </c>
       <c r="D2" s="4" t="inlineStr">
         <is>
-          <t>易述鲜</t>
+          <t>刘礼钊, 赵淑佳, 陈曦轶</t>
         </is>
       </c>
       <c r="E2" s="4" t="inlineStr">
         <is>
-          <t>X2417</t>
+          <t>X30382</t>
         </is>
       </c>
       <c r="F2" s="4" t="inlineStr">
         <is>
-          <t>150/150</t>
+          <t>100/30</t>
         </is>
       </c>
     </row>
@@ -3879,7 +4813,7 @@
       </c>
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>线性代数B</t>
+          <t>形式与政策Ⅰ</t>
         </is>
       </c>
       <c r="C3" s="4" t="inlineStr">
@@ -3889,17 +4823,17 @@
       </c>
       <c r="D3" s="4" t="inlineStr">
         <is>
-          <t>蒲伟</t>
+          <t>马晓燕</t>
         </is>
       </c>
       <c r="E3" s="4" t="inlineStr">
         <is>
-          <t>X7301</t>
+          <t>X1413</t>
         </is>
       </c>
       <c r="F3" s="4" t="inlineStr">
         <is>
-          <t>50/60</t>
+          <t>100/100</t>
         </is>
       </c>
     </row>
@@ -3911,7 +4845,7 @@
       </c>
       <c r="B4" s="4" t="inlineStr">
         <is>
-          <t>高等数学I</t>
+          <t>线性代数B</t>
         </is>
       </c>
       <c r="C4" s="4" t="inlineStr">
@@ -3921,29 +4855,29 @@
       </c>
       <c r="D4" s="4" t="inlineStr">
         <is>
-          <t>熊学</t>
+          <t>张兴元</t>
         </is>
       </c>
       <c r="E4" s="4" t="inlineStr">
         <is>
-          <t>X1210</t>
+          <t>X7102</t>
         </is>
       </c>
       <c r="F4" s="4" t="inlineStr">
         <is>
-          <t>50/150</t>
+          <t>50/60</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="4" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="B5" s="4" t="inlineStr">
         <is>
-          <t>思想道德与法治</t>
+          <t>线性代数B</t>
         </is>
       </c>
       <c r="C5" s="4" t="inlineStr">
@@ -3953,29 +4887,29 @@
       </c>
       <c r="D5" s="4" t="inlineStr">
         <is>
-          <t>何洪涛</t>
+          <t>符伟</t>
         </is>
       </c>
       <c r="E5" s="4" t="inlineStr">
         <is>
-          <t>X2231</t>
+          <t>X2534</t>
         </is>
       </c>
       <c r="F5" s="4" t="inlineStr">
         <is>
-          <t>100/60</t>
+          <t>50/60</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="4" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="B6" s="4" t="inlineStr">
         <is>
-          <t>制图与CAD基础</t>
+          <t>计算机程序设计</t>
         </is>
       </c>
       <c r="C6" s="4" t="inlineStr">
@@ -3985,29 +4919,29 @@
       </c>
       <c r="D6" s="4" t="inlineStr">
         <is>
-          <t>兰纯纯</t>
+          <t>刘金艳</t>
         </is>
       </c>
       <c r="E6" s="4" t="inlineStr">
         <is>
-          <t>X1319</t>
+          <t>X1321</t>
         </is>
       </c>
       <c r="F6" s="4" t="inlineStr">
         <is>
-          <t>75/100</t>
+          <t>50/100</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="4" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="B7" s="4" t="inlineStr">
         <is>
-          <t>线性代数B</t>
+          <t>跨学科创新方法与实践Ⅱ</t>
         </is>
       </c>
       <c r="C7" s="4" t="inlineStr">
@@ -4017,29 +4951,29 @@
       </c>
       <c r="D7" s="4" t="inlineStr">
         <is>
-          <t>樊明书</t>
+          <t>宋爱玲</t>
         </is>
       </c>
       <c r="E7" s="4" t="inlineStr">
         <is>
-          <t>X1212</t>
+          <t>X30380</t>
         </is>
       </c>
       <c r="F7" s="4" t="inlineStr">
         <is>
-          <t>50/150</t>
+          <t>25/30</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="4" t="inlineStr">
         <is>
-          <t>3-5</t>
+          <t>1-2</t>
         </is>
       </c>
       <c r="B8" s="4" t="inlineStr">
         <is>
-          <t>英语I</t>
+          <t>跨学科创新方法与实践Ⅱ</t>
         </is>
       </c>
       <c r="C8" s="4" t="inlineStr">
@@ -4049,12 +4983,12 @@
       </c>
       <c r="D8" s="4" t="inlineStr">
         <is>
-          <t>杜洋</t>
+          <t>张晓平</t>
         </is>
       </c>
       <c r="E8" s="4" t="inlineStr">
         <is>
-          <t>X2528</t>
+          <t>X2532</t>
         </is>
       </c>
       <c r="F8" s="4" t="inlineStr">
@@ -4066,7 +5000,7 @@
     <row r="9">
       <c r="A9" s="4" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="B9" s="4" t="inlineStr">
@@ -4081,29 +5015,29 @@
       </c>
       <c r="D9" s="4" t="inlineStr">
         <is>
-          <t>李茜</t>
+          <t>刘倩</t>
         </is>
       </c>
       <c r="E9" s="4" t="inlineStr">
         <is>
-          <t>X2428</t>
+          <t>X1215</t>
         </is>
       </c>
       <c r="F9" s="4" t="inlineStr">
         <is>
-          <t>50/60</t>
+          <t>50/150</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="4" t="inlineStr">
         <is>
-          <t>3-4</t>
+          <t>3-5</t>
         </is>
       </c>
       <c r="B10" s="4" t="inlineStr">
         <is>
-          <t>美术Ⅰ</t>
+          <t>英语I</t>
         </is>
       </c>
       <c r="C10" s="4" t="inlineStr">
@@ -4113,29 +5047,29 @@
       </c>
       <c r="D10" s="4" t="inlineStr">
         <is>
-          <t>魏琳</t>
+          <t>钟菲菲</t>
         </is>
       </c>
       <c r="E10" s="4" t="inlineStr">
         <is>
-          <t>X2229</t>
+          <t>X2419</t>
         </is>
       </c>
       <c r="F10" s="4" t="inlineStr">
         <is>
-          <t>25/60</t>
+          <t>25/150</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="4" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="B11" s="4" t="inlineStr">
         <is>
-          <t>高等数学I</t>
+          <t>职业生涯规划</t>
         </is>
       </c>
       <c r="C11" s="4" t="inlineStr">
@@ -4145,29 +5079,29 @@
       </c>
       <c r="D11" s="4" t="inlineStr">
         <is>
-          <t>朱星亮</t>
+          <t>刘礼钊, 赵淑佳</t>
         </is>
       </c>
       <c r="E11" s="4" t="inlineStr">
         <is>
-          <t>X2214</t>
+          <t>工训A座201</t>
         </is>
       </c>
       <c r="F11" s="4" t="inlineStr">
         <is>
-          <t>50/150</t>
+          <t>100/50</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="4" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="B12" s="4" t="inlineStr">
         <is>
-          <t>高等数学I</t>
+          <t>形式与政策Ⅰ</t>
         </is>
       </c>
       <c r="C12" s="4" t="inlineStr">
@@ -4177,29 +5111,29 @@
       </c>
       <c r="D12" s="4" t="inlineStr">
         <is>
-          <t>冯颖</t>
+          <t>黄倩</t>
         </is>
       </c>
       <c r="E12" s="4" t="inlineStr">
         <is>
-          <t>X4357</t>
+          <t>X1212</t>
         </is>
       </c>
       <c r="F12" s="4" t="inlineStr">
         <is>
-          <t>50/100</t>
+          <t>100/150</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="4" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="B13" s="4" t="inlineStr">
         <is>
-          <t>计算机程序设计</t>
+          <t>高等数学I</t>
         </is>
       </c>
       <c r="C13" s="4" t="inlineStr">
@@ -4209,29 +5143,29 @@
       </c>
       <c r="D13" s="4" t="inlineStr">
         <is>
-          <t>凯定吉</t>
+          <t>朱星亮</t>
         </is>
       </c>
       <c r="E13" s="4" t="inlineStr">
         <is>
-          <t>X1311</t>
+          <t>X1220</t>
         </is>
       </c>
       <c r="F13" s="4" t="inlineStr">
         <is>
-          <t>50/100</t>
+          <t>50/150</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="4" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="B14" s="4" t="inlineStr">
         <is>
-          <t>计算机程序设计</t>
+          <t>线性代数B</t>
         </is>
       </c>
       <c r="C14" s="4" t="inlineStr">
@@ -4241,29 +5175,29 @@
       </c>
       <c r="D14" s="4" t="inlineStr">
         <is>
-          <t>刘霓</t>
+          <t>符伟</t>
         </is>
       </c>
       <c r="E14" s="4" t="inlineStr">
         <is>
-          <t>X1315</t>
+          <t>X2316</t>
         </is>
       </c>
       <c r="F14" s="4" t="inlineStr">
         <is>
-          <t>50/100</t>
+          <t>50/150</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="4" t="inlineStr">
         <is>
-          <t>6-8</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="B15" s="4" t="inlineStr">
         <is>
-          <t>英语I</t>
+          <t>跨学科创新方法与实践Ⅱ</t>
         </is>
       </c>
       <c r="C15" s="4" t="inlineStr">
@@ -4273,29 +5207,29 @@
       </c>
       <c r="D15" s="4" t="inlineStr">
         <is>
-          <t>杜洋</t>
+          <t>朱洁</t>
         </is>
       </c>
       <c r="E15" s="4" t="inlineStr">
         <is>
-          <t>X1215</t>
+          <t>X30382</t>
         </is>
       </c>
       <c r="F15" s="4" t="inlineStr">
         <is>
-          <t>25/150</t>
+          <t>25/30</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="4" t="inlineStr">
         <is>
-          <t>6-7</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="B16" s="4" t="inlineStr">
         <is>
-          <t>高等数学I</t>
+          <t>跨学科创新方法与实践Ⅱ</t>
         </is>
       </c>
       <c r="C16" s="4" t="inlineStr">
@@ -4305,29 +5239,29 @@
       </c>
       <c r="D16" s="4" t="inlineStr">
         <is>
-          <t>熊学</t>
+          <t>李君</t>
         </is>
       </c>
       <c r="E16" s="4" t="inlineStr">
         <is>
-          <t>X2229</t>
+          <t>X7301</t>
         </is>
       </c>
       <c r="F16" s="4" t="inlineStr">
         <is>
-          <t>50/60</t>
+          <t>25/60</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="4" t="inlineStr">
         <is>
-          <t>6-7</t>
+          <t>3-4</t>
         </is>
       </c>
       <c r="B17" s="4" t="inlineStr">
         <is>
-          <t>计算机程序设计</t>
+          <t>跨学科创新方法与实践Ⅱ</t>
         </is>
       </c>
       <c r="C17" s="4" t="inlineStr">
@@ -4337,29 +5271,29 @@
       </c>
       <c r="D17" s="4" t="inlineStr">
         <is>
-          <t>刘倩</t>
+          <t>谢东</t>
         </is>
       </c>
       <c r="E17" s="4" t="inlineStr">
         <is>
-          <t>X1210</t>
+          <t>X2225</t>
         </is>
       </c>
       <c r="F17" s="4" t="inlineStr">
         <is>
-          <t>50/150</t>
+          <t>25/60</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="4" t="inlineStr">
         <is>
-          <t>9-10</t>
+          <t>6-9</t>
         </is>
       </c>
       <c r="B18" s="4" t="inlineStr">
         <is>
-          <t>国家安全教育</t>
+          <t>工程创新实训</t>
         </is>
       </c>
       <c r="C18" s="4" t="inlineStr">
@@ -4369,29 +5303,29 @@
       </c>
       <c r="D18" s="4" t="inlineStr">
         <is>
-          <t>刘玉标, 孟凡春, 李树芬, 杨桃莉, 杨都强, 王峰, 詹弘, 钱晓群</t>
+          <t>贾亚坤</t>
         </is>
       </c>
       <c r="E18" s="4" t="inlineStr">
         <is>
-          <t>X2435</t>
+          <t>X1320</t>
         </is>
       </c>
       <c r="F18" s="4" t="inlineStr">
         <is>
-          <t>175/60</t>
+          <t>50/100</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="4" t="inlineStr">
         <is>
-          <t>9-10</t>
+          <t>6-7</t>
         </is>
       </c>
       <c r="B19" s="4" t="inlineStr">
         <is>
-          <t>线性代数B</t>
+          <t>体育Ⅰ</t>
         </is>
       </c>
       <c r="C19" s="4" t="inlineStr">
@@ -4401,24 +5335,24 @@
       </c>
       <c r="D19" s="4" t="inlineStr">
         <is>
-          <t>张兴元</t>
+          <t>易述鲜</t>
         </is>
       </c>
       <c r="E19" s="4" t="inlineStr">
         <is>
-          <t>X2316</t>
+          <t>X2427</t>
         </is>
       </c>
       <c r="F19" s="4" t="inlineStr">
         <is>
-          <t>50/150</t>
+          <t>350/60</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="4" t="inlineStr">
         <is>
-          <t>9-10</t>
+          <t>6-7</t>
         </is>
       </c>
       <c r="B20" s="4" t="inlineStr">
@@ -4433,29 +5367,29 @@
       </c>
       <c r="D20" s="4" t="inlineStr">
         <is>
-          <t>朱星亮</t>
+          <t>陈金喜</t>
         </is>
       </c>
       <c r="E20" s="4" t="inlineStr">
         <is>
-          <t>X4155</t>
+          <t>X2333</t>
         </is>
       </c>
       <c r="F20" s="4" t="inlineStr">
         <is>
-          <t>50/100</t>
+          <t>50/60</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="4" t="inlineStr">
         <is>
-          <t>11-13</t>
+          <t>6-7</t>
         </is>
       </c>
       <c r="B21" s="4" t="inlineStr">
         <is>
-          <t>线性代数B</t>
+          <t>高等数学I</t>
         </is>
       </c>
       <c r="C21" s="4" t="inlineStr">
@@ -4465,29 +5399,29 @@
       </c>
       <c r="D21" s="4" t="inlineStr">
         <is>
-          <t>梁涛</t>
+          <t>徐昌贵</t>
         </is>
       </c>
       <c r="E21" s="4" t="inlineStr">
         <is>
-          <t>X9537</t>
+          <t>X2417</t>
         </is>
       </c>
       <c r="F21" s="4" t="inlineStr">
         <is>
-          <t>50/30</t>
+          <t>50/150</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="4" t="inlineStr">
         <is>
-          <t>11-12</t>
+          <t>6-7</t>
         </is>
       </c>
       <c r="B22" s="4" t="inlineStr">
         <is>
-          <t>计算机程序设计</t>
+          <t>跨学科创新方法与实践Ⅱ</t>
         </is>
       </c>
       <c r="C22" s="4" t="inlineStr">
@@ -4497,29 +5431,29 @@
       </c>
       <c r="D22" s="4" t="inlineStr">
         <is>
-          <t>刘倩</t>
+          <t>王衡</t>
         </is>
       </c>
       <c r="E22" s="4" t="inlineStr">
         <is>
-          <t>X7310</t>
+          <t>X2234</t>
         </is>
       </c>
       <c r="F22" s="4" t="inlineStr">
         <is>
-          <t>50/60</t>
+          <t>25/60</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="4" t="inlineStr">
         <is>
-          <t>11-12</t>
+          <t>9-10</t>
         </is>
       </c>
       <c r="B23" s="4" t="inlineStr">
         <is>
-          <t>工程化学</t>
+          <t>计算机程序设计</t>
         </is>
       </c>
       <c r="C23" s="4" t="inlineStr">
@@ -4529,29 +5463,29 @@
       </c>
       <c r="D23" s="4" t="inlineStr">
         <is>
-          <t>侯宗瑞</t>
+          <t>刘金艳</t>
         </is>
       </c>
       <c r="E23" s="4" t="inlineStr">
         <is>
-          <t>X2235</t>
+          <t>X2320</t>
         </is>
       </c>
       <c r="F23" s="4" t="inlineStr">
         <is>
-          <t>50/60</t>
+          <t>50/150</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="4" t="inlineStr">
         <is>
-          <t>11-12</t>
+          <t>9-10</t>
         </is>
       </c>
       <c r="B24" s="4" t="inlineStr">
         <is>
-          <t>跨学科创新方法与实践Ⅱ</t>
+          <t>计算机程序设计</t>
         </is>
       </c>
       <c r="C24" s="4" t="inlineStr">
@@ -4561,1381 +5495,303 @@
       </c>
       <c r="D24" s="4" t="inlineStr">
         <is>
-          <t>谢东</t>
+          <t>凯定吉</t>
         </is>
       </c>
       <c r="E24" s="4" t="inlineStr">
         <is>
-          <t>X4152</t>
+          <t>X2422</t>
         </is>
       </c>
       <c r="F24" s="4" t="inlineStr">
         <is>
-          <t>25/100</t>
+          <t>50/150</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="4" t="inlineStr">
         <is>
+          <t>9-10</t>
+        </is>
+      </c>
+      <c r="B25" s="4" t="inlineStr">
+        <is>
+          <t>高等数学I</t>
+        </is>
+      </c>
+      <c r="C25" s="4" t="inlineStr">
+        <is>
+          <t>必修</t>
+        </is>
+      </c>
+      <c r="D25" s="4" t="inlineStr">
+        <is>
+          <t>朱星亮</t>
+        </is>
+      </c>
+      <c r="E25" s="4" t="inlineStr">
+        <is>
+          <t>X2417</t>
+        </is>
+      </c>
+      <c r="F25" s="4" t="inlineStr">
+        <is>
+          <t>50/150</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="4" t="inlineStr">
+        <is>
+          <t>9-10</t>
+        </is>
+      </c>
+      <c r="B26" s="4" t="inlineStr">
+        <is>
+          <t>跨学科创新方法与实践Ⅱ</t>
+        </is>
+      </c>
+      <c r="C26" s="4" t="inlineStr">
+        <is>
+          <t>必修</t>
+        </is>
+      </c>
+      <c r="D26" s="4" t="inlineStr">
+        <is>
+          <t>朱石磊</t>
+        </is>
+      </c>
+      <c r="E26" s="4" t="inlineStr">
+        <is>
+          <t>X2523</t>
+        </is>
+      </c>
+      <c r="F26" s="4" t="inlineStr">
+        <is>
+          <t>25/60</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="4" t="inlineStr">
+        <is>
+          <t>9-10</t>
+        </is>
+      </c>
+      <c r="B27" s="4" t="inlineStr">
+        <is>
+          <t>跨学科创新方法与实践Ⅱ</t>
+        </is>
+      </c>
+      <c r="C27" s="4" t="inlineStr">
+        <is>
+          <t>必修</t>
+        </is>
+      </c>
+      <c r="D27" s="4" t="inlineStr">
+        <is>
+          <t>王平</t>
+        </is>
+      </c>
+      <c r="E27" s="4" t="inlineStr">
+        <is>
+          <t>X2214</t>
+        </is>
+      </c>
+      <c r="F27" s="4" t="inlineStr">
+        <is>
+          <t>25/150</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="4" t="inlineStr">
+        <is>
+          <t>11-13</t>
+        </is>
+      </c>
+      <c r="B28" s="4" t="inlineStr">
+        <is>
+          <t>线性代数B</t>
+        </is>
+      </c>
+      <c r="C28" s="4" t="inlineStr">
+        <is>
+          <t>必修</t>
+        </is>
+      </c>
+      <c r="D28" s="4" t="inlineStr">
+        <is>
+          <t>张兴元</t>
+        </is>
+      </c>
+      <c r="E28" s="4" t="inlineStr">
+        <is>
+          <t>X4358</t>
+        </is>
+      </c>
+      <c r="F28" s="4" t="inlineStr">
+        <is>
+          <t>50/100</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="4" t="inlineStr">
+        <is>
+          <t>11-13</t>
+        </is>
+      </c>
+      <c r="B29" s="4" t="inlineStr">
+        <is>
+          <t>计算机程序设计</t>
+        </is>
+      </c>
+      <c r="C29" s="4" t="inlineStr">
+        <is>
+          <t>必修</t>
+        </is>
+      </c>
+      <c r="D29" s="4" t="inlineStr">
+        <is>
+          <t>刘霓</t>
+        </is>
+      </c>
+      <c r="E29" s="4" t="inlineStr">
+        <is>
+          <t>X2213</t>
+        </is>
+      </c>
+      <c r="F29" s="4" t="inlineStr">
+        <is>
+          <t>50/150</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="4" t="inlineStr">
+        <is>
           <t>11-12</t>
         </is>
       </c>
-      <c r="B25" s="4" t="inlineStr">
-        <is>
-          <t>跨学科创新方法与实践Ⅱ</t>
-        </is>
-      </c>
-      <c r="C25" s="4" t="inlineStr">
-        <is>
-          <t>必修</t>
-        </is>
-      </c>
-      <c r="D25" s="4" t="inlineStr">
-        <is>
-          <t>王平</t>
-        </is>
-      </c>
-      <c r="E25" s="4" t="inlineStr">
-        <is>
-          <t>X30385</t>
-        </is>
-      </c>
-      <c r="F25" s="4" t="inlineStr">
-        <is>
-          <t>25/30</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>节次</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>课程名称</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>性质</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>教师</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>教室</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>人数/容量</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>1-4</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>工程创新实训</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>必修</t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>贾亚坤</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t>X2423</t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t>125/60</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>1-2</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>跨学科创新方法与实践Ⅱ</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>必修</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>李君</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>X2232</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>25/60</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>3-5</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
+      <c r="B30" s="4" t="inlineStr">
+        <is>
+          <t>国家安全教育</t>
+        </is>
+      </c>
+      <c r="C30" s="4" t="inlineStr">
+        <is>
+          <t>必修</t>
+        </is>
+      </c>
+      <c r="D30" s="4" t="inlineStr">
+        <is>
+          <t>刘玉标, 孟凡春, 李树芬, 杨桃莉, 杨都强, 王峰, 詹弘, 钱晓群</t>
+        </is>
+      </c>
+      <c r="E30" s="4" t="inlineStr">
+        <is>
+          <t>X2529</t>
+        </is>
+      </c>
+      <c r="F30" s="4" t="inlineStr">
+        <is>
+          <t>175/60</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="4" t="inlineStr">
+        <is>
+          <t>11-12</t>
+        </is>
+      </c>
+      <c r="B31" s="4" t="inlineStr">
+        <is>
+          <t>计算机程序设计</t>
+        </is>
+      </c>
+      <c r="C31" s="4" t="inlineStr">
+        <is>
+          <t>必修</t>
+        </is>
+      </c>
+      <c r="D31" s="4" t="inlineStr">
+        <is>
+          <t>李茜</t>
+        </is>
+      </c>
+      <c r="E31" s="4" t="inlineStr">
+        <is>
+          <t>X2231</t>
+        </is>
+      </c>
+      <c r="F31" s="4" t="inlineStr">
+        <is>
+          <t>50/60</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="4" t="inlineStr">
+        <is>
+          <t>11-12</t>
+        </is>
+      </c>
+      <c r="B32" s="4" t="inlineStr">
         <is>
           <t>高等数学I</t>
         </is>
       </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>必修</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>徐昌贵</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>X30385</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>50/30</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>3-5</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>线性代数B</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>必修</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>蒲伟</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>X1214</t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
+      <c r="C32" s="4" t="inlineStr">
+        <is>
+          <t>必修</t>
+        </is>
+      </c>
+      <c r="D32" s="4" t="inlineStr">
+        <is>
+          <t>冯颖</t>
+        </is>
+      </c>
+      <c r="E32" s="4" t="inlineStr">
+        <is>
+          <t>X2417</t>
+        </is>
+      </c>
+      <c r="F32" s="4" t="inlineStr">
         <is>
           <t>50/150</t>
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>3-4</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
+    <row r="33">
+      <c r="A33" s="4" t="inlineStr">
+        <is>
+          <t>11-12</t>
+        </is>
+      </c>
+      <c r="B33" s="4" t="inlineStr">
         <is>
           <t>工程化学</t>
         </is>
       </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>必修</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>黄婷</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>X1226</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>75/150</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>3-4</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>计算机程序设计</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>必修</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>刘霓</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>X2333</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>50/60</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="inlineStr">
-        <is>
-          <t>3-4</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>高等数学I</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>必修</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>熊学</t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>X2234</t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t>50/60</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="inlineStr">
-        <is>
-          <t>6-9</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>工程创新实训</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>必修</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t>贾亚坤</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>X7407</t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>50/60</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="inlineStr">
-        <is>
-          <t>6-8</t>
-        </is>
-      </c>
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t>思想道德与法治</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t>必修</t>
-        </is>
-      </c>
-      <c r="D10" s="4" t="inlineStr">
-        <is>
-          <t>杨子均</t>
-        </is>
-      </c>
-      <c r="E10" s="4" t="inlineStr">
-        <is>
-          <t>X1315</t>
-        </is>
-      </c>
-      <c r="F10" s="4" t="inlineStr">
-        <is>
-          <t>100/100</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="inlineStr">
-        <is>
-          <t>6-8</t>
-        </is>
-      </c>
-      <c r="B11" s="4" t="inlineStr">
-        <is>
-          <t>线性代数B</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="inlineStr">
-        <is>
-          <t>必修</t>
-        </is>
-      </c>
-      <c r="D11" s="4" t="inlineStr">
-        <is>
-          <t>张兴元</t>
-        </is>
-      </c>
-      <c r="E11" s="4" t="inlineStr">
-        <is>
-          <t>X2527</t>
-        </is>
-      </c>
-      <c r="F11" s="4" t="inlineStr">
-        <is>
-          <t>50/60</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="inlineStr">
-        <is>
-          <t>6-8</t>
-        </is>
-      </c>
-      <c r="B12" s="4" t="inlineStr">
-        <is>
-          <t>英语I</t>
-        </is>
-      </c>
-      <c r="C12" s="4" t="inlineStr">
-        <is>
-          <t>必修</t>
-        </is>
-      </c>
-      <c r="D12" s="4" t="inlineStr">
-        <is>
-          <t>夏玉立</t>
-        </is>
-      </c>
-      <c r="E12" s="4" t="inlineStr">
-        <is>
-          <t>X1217</t>
-        </is>
-      </c>
-      <c r="F12" s="4" t="inlineStr">
-        <is>
-          <t>25/150</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="inlineStr">
-        <is>
-          <t>6-7</t>
-        </is>
-      </c>
-      <c r="B13" s="4" t="inlineStr">
-        <is>
-          <t>军事技能</t>
-        </is>
-      </c>
-      <c r="C13" s="4" t="inlineStr">
-        <is>
-          <t>必修</t>
-        </is>
-      </c>
-      <c r="D13" s="4" t="inlineStr">
-        <is>
-          <t>文彦达</t>
-        </is>
-      </c>
-      <c r="E13" s="4" t="inlineStr">
-        <is>
-          <t>X7310</t>
-        </is>
-      </c>
-      <c r="F13" s="4" t="inlineStr">
-        <is>
-          <t>225/60</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="4" t="inlineStr">
-        <is>
-          <t>6-7</t>
-        </is>
-      </c>
-      <c r="B14" s="4" t="inlineStr">
-        <is>
-          <t>线性代数B</t>
-        </is>
-      </c>
-      <c r="C14" s="4" t="inlineStr">
-        <is>
-          <t>必修</t>
-        </is>
-      </c>
-      <c r="D14" s="4" t="inlineStr">
-        <is>
-          <t>符伟</t>
-        </is>
-      </c>
-      <c r="E14" s="4" t="inlineStr">
-        <is>
-          <t>X2222</t>
-        </is>
-      </c>
-      <c r="F14" s="4" t="inlineStr">
-        <is>
-          <t>50/60</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="inlineStr">
-        <is>
-          <t>6-7</t>
-        </is>
-      </c>
-      <c r="B15" s="4" t="inlineStr">
-        <is>
-          <t>工程化学</t>
-        </is>
-      </c>
-      <c r="C15" s="4" t="inlineStr">
-        <is>
-          <t>必修</t>
-        </is>
-      </c>
-      <c r="D15" s="4" t="inlineStr">
+      <c r="C33" s="4" t="inlineStr">
+        <is>
+          <t>必修</t>
+        </is>
+      </c>
+      <c r="D33" s="4" t="inlineStr">
         <is>
           <t>侯宗瑞</t>
         </is>
       </c>
-      <c r="E15" s="4" t="inlineStr">
-        <is>
-          <t>X1223</t>
-        </is>
-      </c>
-      <c r="F15" s="4" t="inlineStr">
-        <is>
-          <t>50/150</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="4" t="inlineStr">
-        <is>
-          <t>6-7</t>
-        </is>
-      </c>
-      <c r="B16" s="4" t="inlineStr">
-        <is>
-          <t>跨学科创新方法与实践Ⅱ</t>
-        </is>
-      </c>
-      <c r="C16" s="4" t="inlineStr">
-        <is>
-          <t>必修</t>
-        </is>
-      </c>
-      <c r="D16" s="4" t="inlineStr">
-        <is>
-          <t>杨乃琪</t>
-        </is>
-      </c>
-      <c r="E16" s="4" t="inlineStr">
-        <is>
-          <t>X1314</t>
-        </is>
-      </c>
-      <c r="F16" s="4" t="inlineStr">
-        <is>
-          <t>25/100</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="4" t="inlineStr">
-        <is>
-          <t>9-10</t>
-        </is>
-      </c>
-      <c r="B17" s="4" t="inlineStr">
-        <is>
-          <t>跨学科创新方法与实践Ⅱ</t>
-        </is>
-      </c>
-      <c r="C17" s="4" t="inlineStr">
-        <is>
-          <t>必修</t>
-        </is>
-      </c>
-      <c r="D17" s="4" t="inlineStr">
-        <is>
-          <t>郭永春</t>
-        </is>
-      </c>
-      <c r="E17" s="4" t="inlineStr">
-        <is>
-          <t>X2321</t>
-        </is>
-      </c>
-      <c r="F17" s="4" t="inlineStr">
-        <is>
-          <t>25/150</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="4" t="inlineStr">
-        <is>
-          <t>11-13</t>
-        </is>
-      </c>
-      <c r="B18" s="4" t="inlineStr">
-        <is>
-          <t>高等数学I</t>
-        </is>
-      </c>
-      <c r="C18" s="4" t="inlineStr">
-        <is>
-          <t>必修</t>
-        </is>
-      </c>
-      <c r="D18" s="4" t="inlineStr">
-        <is>
-          <t>徐昌贵</t>
-        </is>
-      </c>
-      <c r="E18" s="4" t="inlineStr">
-        <is>
-          <t>X1313</t>
-        </is>
-      </c>
-      <c r="F18" s="4" t="inlineStr">
-        <is>
-          <t>50/100</t>
-        </is>
-      </c>
-    </row>
-    <row r="19">
-      <c r="A19" s="4" t="inlineStr">
-        <is>
-          <t>11-13</t>
-        </is>
-      </c>
-      <c r="B19" s="4" t="inlineStr">
-        <is>
-          <t>英语I</t>
-        </is>
-      </c>
-      <c r="C19" s="4" t="inlineStr">
-        <is>
-          <t>必修</t>
-        </is>
-      </c>
-      <c r="D19" s="4" t="inlineStr">
-        <is>
-          <t>杨世蓉</t>
-        </is>
-      </c>
-      <c r="E19" s="4" t="inlineStr">
-        <is>
-          <t>X4357</t>
-        </is>
-      </c>
-      <c r="F19" s="4" t="inlineStr">
-        <is>
-          <t>25/100</t>
-        </is>
-      </c>
-    </row>
-    <row r="20">
-      <c r="A20" s="4" t="inlineStr">
-        <is>
-          <t>11-13</t>
-        </is>
-      </c>
-      <c r="B20" s="4" t="inlineStr">
-        <is>
-          <t>英语I</t>
-        </is>
-      </c>
-      <c r="C20" s="4" t="inlineStr">
-        <is>
-          <t>必修</t>
-        </is>
-      </c>
-      <c r="D20" s="4" t="inlineStr">
-        <is>
-          <t>吴丽雯</t>
-        </is>
-      </c>
-      <c r="E20" s="4" t="inlineStr">
-        <is>
-          <t>X7309</t>
-        </is>
-      </c>
-      <c r="F20" s="4" t="inlineStr">
-        <is>
-          <t>25/60</t>
-        </is>
-      </c>
-    </row>
-    <row r="21">
-      <c r="A21" s="4" t="inlineStr">
-        <is>
-          <t>11-12</t>
-        </is>
-      </c>
-      <c r="B21" s="4" t="inlineStr">
-        <is>
-          <t>国家安全教育</t>
-        </is>
-      </c>
-      <c r="C21" s="4" t="inlineStr">
-        <is>
-          <t>必修</t>
-        </is>
-      </c>
-      <c r="D21" s="4" t="inlineStr">
-        <is>
-          <t>刘玉标, 孟凡春, 李树芬, 杨桃莉, 杨都强, 王峰, 詹弘, 钱晓群</t>
-        </is>
-      </c>
-      <c r="E21" s="4" t="inlineStr">
-        <is>
-          <t>X2323</t>
-        </is>
-      </c>
-      <c r="F21" s="4" t="inlineStr">
-        <is>
-          <t>125/60</t>
-        </is>
-      </c>
-    </row>
-    <row r="22">
-      <c r="A22" s="4" t="inlineStr">
-        <is>
-          <t>11-12</t>
-        </is>
-      </c>
-      <c r="B22" s="4" t="inlineStr">
-        <is>
-          <t>计算机程序设计</t>
-        </is>
-      </c>
-      <c r="C22" s="4" t="inlineStr">
-        <is>
-          <t>必修</t>
-        </is>
-      </c>
-      <c r="D22" s="4" t="inlineStr">
-        <is>
-          <t>刘霓</t>
-        </is>
-      </c>
-      <c r="E22" s="4" t="inlineStr">
-        <is>
-          <t>X1321</t>
-        </is>
-      </c>
-      <c r="F22" s="4" t="inlineStr">
-        <is>
-          <t>50/100</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:F18"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <cols>
-    <col width="10" customWidth="1" min="1" max="1"/>
-    <col width="30" customWidth="1" min="2" max="2"/>
-    <col width="10" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="20" customWidth="1" min="5" max="5"/>
-    <col width="15" customWidth="1" min="6" max="6"/>
-  </cols>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="3" t="inlineStr">
-        <is>
-          <t>节次</t>
-        </is>
-      </c>
-      <c r="B1" s="3" t="inlineStr">
-        <is>
-          <t>课程名称</t>
-        </is>
-      </c>
-      <c r="C1" s="3" t="inlineStr">
-        <is>
-          <t>性质</t>
-        </is>
-      </c>
-      <c r="D1" s="3" t="inlineStr">
-        <is>
-          <t>教师</t>
-        </is>
-      </c>
-      <c r="E1" s="3" t="inlineStr">
-        <is>
-          <t>教室</t>
-        </is>
-      </c>
-      <c r="F1" s="3" t="inlineStr">
-        <is>
-          <t>人数/容量</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="4" t="inlineStr">
-        <is>
-          <t>1-2</t>
-        </is>
-      </c>
-      <c r="B2" s="4" t="inlineStr">
-        <is>
-          <t>高等数学I</t>
-        </is>
-      </c>
-      <c r="C2" s="4" t="inlineStr">
-        <is>
-          <t>必修</t>
-        </is>
-      </c>
-      <c r="D2" s="4" t="inlineStr">
-        <is>
-          <t>徐昌贵</t>
-        </is>
-      </c>
-      <c r="E2" s="4" t="inlineStr">
-        <is>
-          <t>X7408</t>
-        </is>
-      </c>
-      <c r="F2" s="4" t="inlineStr">
-        <is>
-          <t>50/60</t>
-        </is>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="4" t="inlineStr">
-        <is>
-          <t>3-5</t>
-        </is>
-      </c>
-      <c r="B3" s="4" t="inlineStr">
-        <is>
-          <t>思想道德与法治</t>
-        </is>
-      </c>
-      <c r="C3" s="4" t="inlineStr">
-        <is>
-          <t>必修</t>
-        </is>
-      </c>
-      <c r="D3" s="4" t="inlineStr">
-        <is>
-          <t>杨子均</t>
-        </is>
-      </c>
-      <c r="E3" s="4" t="inlineStr">
-        <is>
-          <t>X1220</t>
-        </is>
-      </c>
-      <c r="F3" s="4" t="inlineStr">
-        <is>
-          <t>100/150</t>
-        </is>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="4" t="inlineStr">
-        <is>
-          <t>3-5</t>
-        </is>
-      </c>
-      <c r="B4" s="4" t="inlineStr">
-        <is>
-          <t>计算机程序设计</t>
-        </is>
-      </c>
-      <c r="C4" s="4" t="inlineStr">
-        <is>
-          <t>必修</t>
-        </is>
-      </c>
-      <c r="D4" s="4" t="inlineStr">
-        <is>
-          <t>李茜</t>
-        </is>
-      </c>
-      <c r="E4" s="4" t="inlineStr">
-        <is>
-          <t>X2524</t>
-        </is>
-      </c>
-      <c r="F4" s="4" t="inlineStr">
-        <is>
-          <t>50/60</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="4" t="inlineStr">
-        <is>
-          <t>3-4</t>
-        </is>
-      </c>
-      <c r="B5" s="4" t="inlineStr">
-        <is>
-          <t>军事理论</t>
-        </is>
-      </c>
-      <c r="C5" s="4" t="inlineStr">
-        <is>
-          <t>必修</t>
-        </is>
-      </c>
-      <c r="D5" s="4" t="inlineStr">
-        <is>
-          <t>李树芬</t>
-        </is>
-      </c>
-      <c r="E5" s="4" t="inlineStr">
-        <is>
-          <t>X30379</t>
-        </is>
-      </c>
-      <c r="F5" s="4" t="inlineStr">
-        <is>
-          <t>100/30</t>
-        </is>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="4" t="inlineStr">
-        <is>
-          <t>3-4</t>
-        </is>
-      </c>
-      <c r="B6" s="4" t="inlineStr">
-        <is>
-          <t>线性代数B</t>
-        </is>
-      </c>
-      <c r="C6" s="4" t="inlineStr">
-        <is>
-          <t>必修</t>
-        </is>
-      </c>
-      <c r="D6" s="4" t="inlineStr">
-        <is>
-          <t>张兴元</t>
-        </is>
-      </c>
-      <c r="E6" s="4" t="inlineStr">
-        <is>
-          <t>X1215</t>
-        </is>
-      </c>
-      <c r="F6" s="4" t="inlineStr">
-        <is>
-          <t>50/150</t>
-        </is>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="4" t="inlineStr">
-        <is>
-          <t>6-8</t>
-        </is>
-      </c>
-      <c r="B7" s="4" t="inlineStr">
-        <is>
-          <t>思想道德与法治</t>
-        </is>
-      </c>
-      <c r="C7" s="4" t="inlineStr">
-        <is>
-          <t>必修</t>
-        </is>
-      </c>
-      <c r="D7" s="4" t="inlineStr">
-        <is>
-          <t>唐登然</t>
-        </is>
-      </c>
-      <c r="E7" s="4" t="inlineStr">
-        <is>
-          <t>X1211</t>
-        </is>
-      </c>
-      <c r="F7" s="4" t="inlineStr">
-        <is>
-          <t>100/150</t>
-        </is>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="4" t="inlineStr">
-        <is>
-          <t>6-8</t>
-        </is>
-      </c>
-      <c r="B8" s="4" t="inlineStr">
-        <is>
-          <t>高等数学I</t>
-        </is>
-      </c>
-      <c r="C8" s="4" t="inlineStr">
-        <is>
-          <t>必修</t>
-        </is>
-      </c>
-      <c r="D8" s="4" t="inlineStr">
-        <is>
-          <t>冯颖</t>
-        </is>
-      </c>
-      <c r="E8" s="4" t="inlineStr">
-        <is>
-          <t>X4153</t>
-        </is>
-      </c>
-      <c r="F8" s="4" t="inlineStr">
-        <is>
-          <t>50/100</t>
-        </is>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="4" t="inlineStr">
-        <is>
-          <t>6-8</t>
-        </is>
-      </c>
-      <c r="B9" s="4" t="inlineStr">
-        <is>
-          <t>计算机程序设计</t>
-        </is>
-      </c>
-      <c r="C9" s="4" t="inlineStr">
-        <is>
-          <t>必修</t>
-        </is>
-      </c>
-      <c r="D9" s="4" t="inlineStr">
-        <is>
-          <t>刘霓</t>
-        </is>
-      </c>
-      <c r="E9" s="4" t="inlineStr">
-        <is>
-          <t>X1314</t>
-        </is>
-      </c>
-      <c r="F9" s="4" t="inlineStr">
-        <is>
-          <t>50/100</t>
-        </is>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="4" t="inlineStr">
-        <is>
-          <t>6-8</t>
-        </is>
-      </c>
-      <c r="B10" s="4" t="inlineStr">
-        <is>
-          <t>英语I</t>
-        </is>
-      </c>
-      <c r="C10" s="4" t="inlineStr">
-        <is>
-          <t>必修</t>
-        </is>
-      </c>
-      <c r="D10" s="4" t="inlineStr">
-        <is>
-          <t>钟菲菲</t>
-        </is>
-      </c>
-      <c r="E10" s="4" t="inlineStr">
-        <is>
-          <t>X2524</t>
-        </is>
-      </c>
-      <c r="F10" s="4" t="inlineStr">
-        <is>
-          <t>25/60</t>
-        </is>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="4" t="inlineStr">
-        <is>
-          <t>9-10</t>
-        </is>
-      </c>
-      <c r="B11" s="4" t="inlineStr">
-        <is>
-          <t>形式与政策Ⅰ</t>
-        </is>
-      </c>
-      <c r="C11" s="4" t="inlineStr">
-        <is>
-          <t>必修</t>
-        </is>
-      </c>
-      <c r="D11" s="4" t="inlineStr">
-        <is>
-          <t>马晓燕</t>
-        </is>
-      </c>
-      <c r="E11" s="4" t="inlineStr">
-        <is>
-          <t>X2316</t>
-        </is>
-      </c>
-      <c r="F11" s="4" t="inlineStr">
-        <is>
-          <t>100/150</t>
-        </is>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="4" t="inlineStr">
-        <is>
-          <t>9-10</t>
-        </is>
-      </c>
-      <c r="B12" s="4" t="inlineStr">
-        <is>
-          <t>高等数学I</t>
-        </is>
-      </c>
-      <c r="C12" s="4" t="inlineStr">
-        <is>
-          <t>必修</t>
-        </is>
-      </c>
-      <c r="D12" s="4" t="inlineStr">
-        <is>
-          <t>冯颖</t>
-        </is>
-      </c>
-      <c r="E12" s="4" t="inlineStr">
-        <is>
-          <t>X2333</t>
-        </is>
-      </c>
-      <c r="F12" s="4" t="inlineStr">
-        <is>
-          <t>50/60</t>
-        </is>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="4" t="inlineStr">
-        <is>
-          <t>9-10</t>
-        </is>
-      </c>
-      <c r="B13" s="4" t="inlineStr">
-        <is>
-          <t>跨学科创新方法与实践Ⅱ</t>
-        </is>
-      </c>
-      <c r="C13" s="4" t="inlineStr">
-        <is>
-          <t>必修</t>
-        </is>
-      </c>
-      <c r="D13" s="4" t="inlineStr">
-        <is>
-          <t>赵菁</t>
-        </is>
-      </c>
-      <c r="E13" s="4" t="inlineStr">
-        <is>
-          <t>X1226</t>
-        </is>
-      </c>
-      <c r="F13" s="4" t="inlineStr">
-        <is>
-          <t>25/150</t>
-        </is>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="4" t="inlineStr">
-        <is>
-          <t>9-10</t>
-        </is>
-      </c>
-      <c r="B14" s="4" t="inlineStr">
-        <is>
-          <t>跨学科创新方法与实践Ⅱ</t>
-        </is>
-      </c>
-      <c r="C14" s="4" t="inlineStr">
-        <is>
-          <t>必修</t>
-        </is>
-      </c>
-      <c r="D14" s="4" t="inlineStr">
-        <is>
-          <t>宋爱玲</t>
-        </is>
-      </c>
-      <c r="E14" s="4" t="inlineStr">
-        <is>
-          <t>X1213</t>
-        </is>
-      </c>
-      <c r="F14" s="4" t="inlineStr">
-        <is>
-          <t>25/150</t>
-        </is>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="4" t="inlineStr">
-        <is>
-          <t>11-13</t>
-        </is>
-      </c>
-      <c r="B15" s="4" t="inlineStr">
-        <is>
-          <t>思想道德与法治</t>
-        </is>
-      </c>
-      <c r="C15" s="4" t="inlineStr">
-        <is>
-          <t>必修</t>
-        </is>
-      </c>
-      <c r="D15" s="4" t="inlineStr">
-        <is>
-          <t>何洪涛</t>
-        </is>
-      </c>
-      <c r="E15" s="4" t="inlineStr">
-        <is>
-          <t>X2435</t>
-        </is>
-      </c>
-      <c r="F15" s="4" t="inlineStr">
-        <is>
-          <t>100/60</t>
-        </is>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="4" t="inlineStr">
-        <is>
-          <t>11-13</t>
-        </is>
-      </c>
-      <c r="B16" s="4" t="inlineStr">
-        <is>
-          <t>制图与CAD基础</t>
-        </is>
-      </c>
-      <c r="C16" s="4" t="inlineStr">
-        <is>
-          <t>必修</t>
-        </is>
-      </c>
-      <c r="D16" s="4" t="inlineStr">
-        <is>
-          <t>兰纯纯</t>
-        </is>
-      </c>
-      <c r="E16" s="4" t="inlineStr">
-        <is>
-          <t>X2529</t>
-        </is>
-      </c>
-      <c r="F16" s="4" t="inlineStr">
-        <is>
-          <t>50/60</t>
-        </is>
-      </c>
-    </row>
-    <row r="17">
-      <c r="A17" s="4" t="inlineStr">
-        <is>
-          <t>11-13</t>
-        </is>
-      </c>
-      <c r="B17" s="4" t="inlineStr">
-        <is>
-          <t>英语I</t>
-        </is>
-      </c>
-      <c r="C17" s="4" t="inlineStr">
-        <is>
-          <t>必修</t>
-        </is>
-      </c>
-      <c r="D17" s="4" t="inlineStr">
-        <is>
-          <t>吴丽雯</t>
-        </is>
-      </c>
-      <c r="E17" s="4" t="inlineStr">
-        <is>
-          <t>X2527</t>
-        </is>
-      </c>
-      <c r="F17" s="4" t="inlineStr">
-        <is>
-          <t>25/60</t>
-        </is>
-      </c>
-    </row>
-    <row r="18">
-      <c r="A18" s="4" t="inlineStr">
-        <is>
-          <t>11-12</t>
-        </is>
-      </c>
-      <c r="B18" s="4" t="inlineStr">
-        <is>
-          <t>高等数学I</t>
-        </is>
-      </c>
-      <c r="C18" s="4" t="inlineStr">
-        <is>
-          <t>必修</t>
-        </is>
-      </c>
-      <c r="D18" s="4" t="inlineStr">
-        <is>
-          <t>朱星亮</t>
-        </is>
-      </c>
-      <c r="E18" s="4" t="inlineStr">
-        <is>
-          <t>X2227</t>
-        </is>
-      </c>
-      <c r="F18" s="4" t="inlineStr">
+      <c r="E33" s="4" t="inlineStr">
+        <is>
+          <t>X2427</t>
+        </is>
+      </c>
+      <c r="F33" s="4" t="inlineStr">
         <is>
           <t>50/60</t>
         </is>
